--- a/src/main/resources/script/db/init-data/hzero_platform/hzero_platform/hzero-platform-customize.xlsx
+++ b/src/main/resources/script/db/init-data/hzero_platform/hzero_platform/hzero-platform-customize.xlsx
@@ -2003,7 +2003,7 @@
     <t>公式=外键引用</t>
   </si>
   <si>
-    <t>2020-09-11</t>
+    <t>2020-09-22</t>
   </si>
   <si>
     <t>hzero</t>
